--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939CE243-C7D6-4FC4-9F10-35C3219B6C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156865A-133B-4CAC-B7DB-BF141C3A4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
@@ -71,22 +71,22 @@
     <t>NonVeg</t>
   </si>
   <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
-  </si>
-  <si>
-    <t>test15@gmail.com</t>
-  </si>
-  <si>
-    <t>test16@gmail.com</t>
-  </si>
-  <si>
-    <t>1991-01-15</t>
-  </si>
-  <si>
-    <t>1991-01-16</t>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test17@gmail.com</t>
+  </si>
+  <si>
+    <t>test18@gmail.com</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>1991-01-18</t>
+  </si>
+  <si>
+    <t>1991-01-17</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1111111115</v>
+        <v>1111111117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>133</v>
@@ -519,16 +519,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1111111116</v>
+        <v>1111111118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -537,7 +537,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>133</v>
@@ -545,8 +545,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{73C9C913-B42E-4826-BBBC-DD4993C80D19}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{7AD392B8-C0CC-4E15-8B0A-506321152024}"/>
+    <hyperlink ref="D2" r:id="rId1" display="test15@gmail.com" xr:uid="{73C9C913-B42E-4826-BBBC-DD4993C80D19}"/>
+    <hyperlink ref="D3" r:id="rId2" display="test16@gmail.com" xr:uid="{7AD392B8-C0CC-4E15-8B0A-506321152024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5156865A-133B-4CAC-B7DB-BF141C3A4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FCEB7-469B-48F2-81C0-3EFFE38C9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
   <sheets>
     <sheet name="PatientInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="deletePatientInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,22 +72,25 @@
     <t>NonVeg</t>
   </si>
   <si>
-    <t>test17</t>
-  </si>
-  <si>
-    <t>test17@gmail.com</t>
-  </si>
-  <si>
-    <t>test18@gmail.com</t>
-  </si>
-  <si>
-    <t>test18</t>
-  </si>
-  <si>
-    <t>1991-01-18</t>
-  </si>
-  <si>
-    <t>1991-01-17</t>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test19@gmail.com</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test20@gmail.com</t>
+  </si>
+  <si>
+    <t>1991-01-20</t>
+  </si>
+  <si>
+    <t>1991-01-19</t>
+  </si>
+  <si>
+    <t>patientId</t>
   </si>
 </sst>
 </file>
@@ -452,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B600A5D-D6B1-42D9-919A-D29E95E45700}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1111111117</v>
+        <v>1111111119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -519,16 +523,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1111111118</v>
+        <v>1111111120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -553,6 +557,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2E589D-61A8-46EA-85D9-293952C0950D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>

--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4FCEB7-469B-48F2-81C0-3EFFE38C9DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77135114-1D97-4923-B4DB-CEFB5D943ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
   <sheets>
     <sheet name="PatientInfo" sheetId="1" r:id="rId1"/>
@@ -72,25 +72,25 @@
     <t>NonVeg</t>
   </si>
   <si>
-    <t>test19</t>
-  </si>
-  <si>
-    <t>test19@gmail.com</t>
-  </si>
-  <si>
-    <t>test20</t>
-  </si>
-  <si>
-    <t>test20@gmail.com</t>
-  </si>
-  <si>
-    <t>1991-01-20</t>
-  </si>
-  <si>
-    <t>1991-01-19</t>
-  </si>
-  <si>
     <t>patientId</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test23@gmail.com</t>
+  </si>
+  <si>
+    <t>test24@gmail.com</t>
+  </si>
+  <si>
+    <t>1991-01-23</t>
+  </si>
+  <si>
+    <t>1991-01-24</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B600A5D-D6B1-42D9-919A-D29E95E45700}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,16 +497,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1111111119</v>
+        <v>1111111123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -529,10 +529,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1111111120</v>
+        <v>1111111124</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>133</v>
@@ -549,8 +549,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="test15@gmail.com" xr:uid="{73C9C913-B42E-4826-BBBC-DD4993C80D19}"/>
-    <hyperlink ref="D3" r:id="rId2" display="test16@gmail.com" xr:uid="{7AD392B8-C0CC-4E15-8B0A-506321152024}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{73C9C913-B42E-4826-BBBC-DD4993C80D19}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{7AD392B8-C0CC-4E15-8B0A-506321152024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -561,7 +561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2E589D-61A8-46EA-85D9-293952C0950D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -569,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77135114-1D97-4923-B4DB-CEFB5D943ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5BDFE9-6ED1-404D-88F8-E91C5513C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
@@ -75,12 +75,6 @@
     <t>patientId</t>
   </si>
   <si>
-    <t>test23</t>
-  </si>
-  <si>
-    <t>test24</t>
-  </si>
-  <si>
     <t>test23@gmail.com</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>1991-01-24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,16 +497,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>1111111123</v>
+        <v>1111111125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>133</v>
@@ -523,16 +523,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1111111124</v>
+        <v>1111111126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>133</v>

--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5BDFE9-6ED1-404D-88F8-E91C5513C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1D1C0F-ACD4-4B2B-B6B9-A5ACC669DA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
   <sheets>
     <sheet name="PatientInfo" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B600A5D-D6B1-42D9-919A-D29E95E45700}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2E589D-61A8-46EA-85D9-293952C0950D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4990</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/requestBodyDetails.xlsx
+++ b/src/test/resources/testData/requestBodyDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\T7_RestlessCoders_DieticianAPI_Hackathon_nov_2023\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1D1C0F-ACD4-4B2B-B6B9-A5ACC669DA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4B165-EC40-41A0-8385-6C37E930BE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0E5AE6ED-B2BD-49D4-8895-9B2C6FFBF544}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
